--- a/ChemicalDatabase.xlsx
+++ b/ChemicalDatabase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Projects semester 2 Python\Python Project Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\calculatorGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC0F17-A44C-4B7D-A6D9-1DC0E62C838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A3B5F4-BAA1-4290-9857-B9F0A261C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E66EF44E-2061-49EF-899B-02134C6CCB31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E66EF44E-2061-49EF-899B-02134C6CCB31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Hydrochloric acid</t>
   </si>
@@ -381,6 +381,96 @@
   </si>
   <si>
     <t> 58.124</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>H₂O</t>
+  </si>
+  <si>
+    <t>Carbon dioxide</t>
+  </si>
+  <si>
+    <t>CO₂</t>
+  </si>
+  <si>
+    <t>LiCl</t>
+  </si>
+  <si>
+    <t>LiBr</t>
+  </si>
+  <si>
+    <t>Lithium chloride</t>
+  </si>
+  <si>
+    <t>Lithium bromide</t>
+  </si>
+  <si>
+    <t>Potassium chloride</t>
+  </si>
+  <si>
+    <t>KCl</t>
+  </si>
+  <si>
+    <t>Potassium bromide</t>
+  </si>
+  <si>
+    <t>KBr</t>
+  </si>
+  <si>
+    <t>Calcium chloride</t>
+  </si>
+  <si>
+    <t>CaCl₂</t>
+  </si>
+  <si>
+    <t>Calcium bromide</t>
+  </si>
+  <si>
+    <t>CaBr₂</t>
+  </si>
+  <si>
+    <t>Lithium sulfate</t>
+  </si>
+  <si>
+    <t>Li₂SO₄</t>
+  </si>
+  <si>
+    <t>Potassium sulfate</t>
+  </si>
+  <si>
+    <t>K₂SO₄</t>
+  </si>
+  <si>
+    <t>Calcium sulfate</t>
+  </si>
+  <si>
+    <t>CaSO₄</t>
+  </si>
+  <si>
+    <t>Nitrogen dioxide</t>
+  </si>
+  <si>
+    <t>NO₂</t>
+  </si>
+  <si>
+    <t>Lithium nitrate</t>
+  </si>
+  <si>
+    <t>LiNO₃</t>
+  </si>
+  <si>
+    <t>Potassium nitrate</t>
+  </si>
+  <si>
+    <t>KNO₃</t>
+  </si>
+  <si>
+    <t>Calcium nitrate</t>
+  </si>
+  <si>
+    <t>Ca(NO₃)₂</t>
   </si>
 </sst>
 </file>
@@ -762,22 +852,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90097E18-6D9B-4C04-BA3E-28E3D3F080BB}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +884,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +901,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -828,7 +918,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -845,7 +935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -862,7 +952,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -879,7 +969,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -896,7 +986,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -913,7 +1003,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -930,7 +1020,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -947,7 +1037,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -964,7 +1054,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -981,7 +1071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1105,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1122,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1139,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1156,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1083,7 +1173,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1100,7 +1190,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1117,7 +1207,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1134,7 +1224,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1151,7 +1241,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1168,7 +1258,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1185,7 +1275,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1292,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1219,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1253,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1270,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1287,7 +1377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1304,7 +1394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -1321,7 +1411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1338,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1355,7 +1445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1372,7 +1462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1389,7 +1479,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1404,7 +1494,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1421,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1436,7 +1526,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1453,7 +1543,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1470,7 +1560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1487,7 +1577,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -1504,7 +1594,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -1521,7 +1611,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -1538,7 +1628,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -1555,7 +1645,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -1570,7 +1660,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -1587,7 +1677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -1604,7 +1694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -1621,11 +1711,215 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="1">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44.01</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42.39</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>86.85</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="1">
+        <v>74.55</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="1">
+        <v>119.002</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="1">
+        <v>110.98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="1">
+        <v>199.89</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="1">
+        <v>109.94</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1">
+        <v>174.26</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="1">
+        <v>136.13999999999999</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="1">
+        <v>46.01</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="1">
+        <v>68.95</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1">
+        <v>101.1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="1">
+        <v>164.09</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ChemicalDatabase.xlsx
+++ b/ChemicalDatabase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\calculatorGUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Thomas\PycharmProjects\calculatorGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A3B5F4-BAA1-4290-9857-B9F0A261C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063485C4-6EFA-4F50-AC81-914395B7C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{E66EF44E-2061-49EF-899B-02134C6CCB31}"/>
+    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15435" xr2:uid="{E66EF44E-2061-49EF-899B-02134C6CCB31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Hydrochloric acid</t>
   </si>
@@ -381,96 +381,6 @@
   </si>
   <si>
     <t> 58.124</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>H₂O</t>
-  </si>
-  <si>
-    <t>Carbon dioxide</t>
-  </si>
-  <si>
-    <t>CO₂</t>
-  </si>
-  <si>
-    <t>LiCl</t>
-  </si>
-  <si>
-    <t>LiBr</t>
-  </si>
-  <si>
-    <t>Lithium chloride</t>
-  </si>
-  <si>
-    <t>Lithium bromide</t>
-  </si>
-  <si>
-    <t>Potassium chloride</t>
-  </si>
-  <si>
-    <t>KCl</t>
-  </si>
-  <si>
-    <t>Potassium bromide</t>
-  </si>
-  <si>
-    <t>KBr</t>
-  </si>
-  <si>
-    <t>Calcium chloride</t>
-  </si>
-  <si>
-    <t>CaCl₂</t>
-  </si>
-  <si>
-    <t>Calcium bromide</t>
-  </si>
-  <si>
-    <t>CaBr₂</t>
-  </si>
-  <si>
-    <t>Lithium sulfate</t>
-  </si>
-  <si>
-    <t>Li₂SO₄</t>
-  </si>
-  <si>
-    <t>Potassium sulfate</t>
-  </si>
-  <si>
-    <t>K₂SO₄</t>
-  </si>
-  <si>
-    <t>Calcium sulfate</t>
-  </si>
-  <si>
-    <t>CaSO₄</t>
-  </si>
-  <si>
-    <t>Nitrogen dioxide</t>
-  </si>
-  <si>
-    <t>NO₂</t>
-  </si>
-  <si>
-    <t>Lithium nitrate</t>
-  </si>
-  <si>
-    <t>LiNO₃</t>
-  </si>
-  <si>
-    <t>Potassium nitrate</t>
-  </si>
-  <si>
-    <t>KNO₃</t>
-  </si>
-  <si>
-    <t>Calcium nitrate</t>
-  </si>
-  <si>
-    <t>Ca(NO₃)₂</t>
   </si>
 </sst>
 </file>
@@ -852,22 +762,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90097E18-6D9B-4C04-BA3E-28E3D3F080BB}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +794,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,7 +811,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -918,7 +828,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -935,7 +845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -952,7 +862,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -969,7 +879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -986,7 +896,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +913,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +930,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +947,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +964,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +981,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1015,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1032,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1049,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1066,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1173,7 +1083,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1190,7 +1100,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1207,7 +1117,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1224,7 +1134,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1151,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1258,7 +1168,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1275,7 +1185,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1202,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1309,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1326,7 +1236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1343,7 +1253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1377,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1394,7 +1304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -1411,7 +1321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1428,7 +1338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1445,7 +1355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1462,7 +1372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1479,7 +1389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1494,7 +1404,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1511,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1526,7 +1436,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1543,7 +1453,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1560,7 +1470,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1577,7 +1487,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -1594,7 +1504,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -1611,7 +1521,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -1628,7 +1538,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -1645,7 +1555,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -1660,7 +1570,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -1677,7 +1587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -1694,7 +1604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -1711,215 +1621,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="1">
-        <v>18.015000000000001</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="1">
-        <v>44.01</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="1">
-        <v>42.39</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="1">
-        <v>86.85</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="1">
-        <v>74.55</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="1">
-        <v>119.002</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="1">
-        <v>110.98</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="1">
-        <v>199.89</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="1">
-        <v>109.94</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="1">
-        <v>174.26</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1">
-        <v>136.13999999999999</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1">
-        <v>46.01</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="1">
-        <v>68.95</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="1">
-        <v>101.1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="1">
-        <v>164.09</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
